--- a/InputData/trans/BNVFE/BAU New Veh Fuel Economy.xlsx
+++ b/InputData/trans/BNVFE/BAU New Veh Fuel Economy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="90" windowWidth="11330" windowHeight="7430" tabRatio="742" firstSheet="4" activeTab="15"/>
+    <workbookView xWindow="360" yWindow="90" windowWidth="11325" windowHeight="7425" tabRatio="742" firstSheet="5" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -3116,11 +3116,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="135861760"/>
-        <c:axId val="135863680"/>
+        <c:axId val="46850816"/>
+        <c:axId val="152246912"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135861760"/>
+        <c:axId val="46850816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3130,7 +3130,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135863680"/>
+        <c:crossAx val="152246912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3138,7 +3138,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="135863680"/>
+        <c:axId val="152246912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3149,7 +3149,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="135861760"/>
+        <c:crossAx val="46850816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3573,17 +3573,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="107.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="107.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3674,142 +3674,142 @@
         <v>168</v>
       </c>
     </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>167</v>
+      </c>
+    </row>
     <row r="22" spans="1:1">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>141</v>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="1" t="s">
-        <v>44</v>
+      <c r="A27" s="13" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="13" t="s">
-        <v>133</v>
+      <c r="A29" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>136</v>
+      <c r="A31" s="13" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="13" t="s">
-        <v>132</v>
+      <c r="A32" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
-      <c r="A33" t="s">
-        <v>137</v>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="1" t="s">
-        <v>138</v>
+      <c r="A35" t="s">
+        <v>130</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>130</v>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="1" t="s">
-        <v>13</v>
+      <c r="A38" t="s">
+        <v>135</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
-      <c r="A39" t="s">
-        <v>135</v>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="2" t="s">
-        <v>18</v>
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="11">
+        <v>117852.00605527176</v>
+      </c>
+      <c r="C41" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" s="11">
-        <v>117852.00605527176</v>
-      </c>
-      <c r="C42" t="s">
-        <v>29</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>137452</v>
+      </c>
+      <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:4">
-      <c r="A43" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43">
-        <v>137452</v>
-      </c>
-      <c r="D43" s="5"/>
+    <row r="45" spans="1:4">
+      <c r="A45" t="s">
+        <v>190</v>
+      </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" t="s">
-        <v>190</v>
+      <c r="B46" t="s">
+        <v>188</v>
+      </c>
+      <c r="C46" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="B47" t="s">
-        <v>188</v>
-      </c>
-      <c r="C47" t="s">
-        <v>189</v>
+      <c r="A47">
+        <v>2030</v>
+      </c>
+      <c r="B47">
+        <v>0.24842043426249769</v>
+      </c>
+      <c r="C47">
+        <v>0.36223427031453798</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>2030</v>
+        <v>2050</v>
       </c>
       <c r="B48">
-        <v>0.24842043426249769</v>
+        <v>0.68580047394960009</v>
       </c>
       <c r="C48">
-        <v>0.36223427031453798</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
-        <v>2050</v>
-      </c>
-      <c r="B49">
-        <v>0.68580047394960009</v>
-      </c>
-      <c r="C49">
         <v>100</v>
       </c>
     </row>
@@ -3827,9 +3827,9 @@
       <selection sqref="A1:AI7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.36328125" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52">
@@ -7223,7 +7223,7 @@
         <v>13.99</v>
       </c>
     </row>
-    <row r="27" spans="1:52" ht="17" customHeight="1">
+    <row r="27" spans="1:52" ht="17.100000000000001" customHeight="1">
       <c r="S27" s="16" t="s">
         <v>96</v>
       </c>
@@ -8081,7 +8081,7 @@
         <v>13.99</v>
       </c>
     </row>
-    <row r="36" spans="1:52" ht="29">
+    <row r="36" spans="1:52" ht="30">
       <c r="A36" s="31" t="s">
         <v>159</v>
       </c>
@@ -8365,7 +8365,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="47" spans="1:52" ht="29">
+    <row r="47" spans="1:52" ht="30">
       <c r="A47" s="29" t="s">
         <v>154</v>
       </c>
@@ -8396,17 +8396,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA81"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B79" sqref="B79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.1796875" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" customWidth="1"/>
-    <col min="3" max="3" width="8.1796875" customWidth="1"/>
-    <col min="4" max="4" width="7.54296875" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53">
@@ -10034,7 +10034,7 @@
         <v>211.2</v>
       </c>
     </row>
-    <row r="15" spans="1:53" ht="29">
+    <row r="15" spans="1:53" ht="30">
       <c r="A15" s="17" t="s">
         <v>73</v>
       </c>
@@ -17606,8 +17606,8 @@
         <v>20</v>
       </c>
       <c r="B79">
-        <f>AVERAGE(F73:Q73)</f>
-        <v>2.7113739173333155E-4</v>
+        <f>J73</f>
+        <v>2.6477923342990673E-4</v>
       </c>
     </row>
     <row r="80" spans="1:53">
@@ -17637,15 +17637,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK91"/>
   <sheetViews>
-    <sheetView topLeftCell="J53" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B65" sqref="B65:AJ65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="49.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="1" max="1" width="49.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -20210,7 +20210,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="42" spans="1:17">
+    <row r="42" spans="1:17" ht="30">
       <c r="A42" s="29" t="s">
         <v>175</v>
       </c>
@@ -20418,7 +20418,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="52" spans="1:36">
+    <row r="52" spans="1:36" ht="30">
       <c r="A52" s="29" t="s">
         <v>175</v>
       </c>
@@ -20450,7 +20450,7 @@
     <row r="53" spans="1:36">
       <c r="A53" s="29"/>
     </row>
-    <row r="54" spans="1:36" ht="43.5">
+    <row r="54" spans="1:36" ht="45">
       <c r="A54" s="29" t="s">
         <v>184</v>
       </c>
@@ -20487,7 +20487,7 @@
         <v>196</v>
       </c>
       <c r="B58">
-        <f>About!$C$48</f>
+        <f>About!$C$47</f>
         <v>0.36223427031453798</v>
       </c>
     </row>
@@ -20938,7 +20938,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="72" spans="1:36">
+    <row r="72" spans="1:36" ht="30">
       <c r="A72" s="29" t="s">
         <v>180</v>
       </c>
@@ -21133,7 +21133,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="83" spans="1:35">
+    <row r="83" spans="1:35" ht="30">
       <c r="A83" s="29" t="s">
         <v>201</v>
       </c>
@@ -21613,26 +21613,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BA75"/>
   <sheetViews>
-    <sheetView topLeftCell="H34" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="T72" sqref="T72:AZ72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.7265625" customWidth="1"/>
-    <col min="2" max="2" width="10.36328125" customWidth="1"/>
-    <col min="3" max="3" width="13.08984375" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
-    <col min="5" max="5" width="8.54296875" customWidth="1"/>
-    <col min="6" max="6" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6328125" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
     <col min="11" max="11" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.36328125" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:53">
@@ -28002,8 +28002,8 @@
         <v>2.1891863247452896E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:53" ht="13" customHeight="1"/>
-    <row r="61" spans="1:53" ht="13" customHeight="1"/>
+    <row r="60" spans="1:53" ht="12.95" customHeight="1"/>
+    <row r="61" spans="1:53" ht="12.95" customHeight="1"/>
     <row r="62" spans="1:53">
       <c r="A62" s="24" t="s">
         <v>120</v>
@@ -29247,19 +29247,19 @@
   <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A7"/>
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="11" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="16" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="36" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="16" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="36" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -30151,11 +30151,11 @@
       <selection activeCell="B2" sqref="B2:AJ7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -31077,15 +31077,15 @@
   </sheetPr>
   <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+    <sheetView topLeftCell="X1" workbookViewId="0">
       <selection activeCell="B7" sqref="B2:AI7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" customWidth="1"/>
-    <col min="3" max="35" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="35" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -31986,13 +31986,13 @@
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" customWidth="1"/>
-    <col min="3" max="29" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="9.26953125" customWidth="1"/>
-    <col min="32" max="35" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" customWidth="1"/>
+    <col min="3" max="29" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="9.28515625" customWidth="1"/>
+    <col min="32" max="35" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -32961,9 +32961,9 @@
       <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -33784,9 +33784,9 @@
       <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -34613,7 +34613,7 @@
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:37">
       <c r="A1" t="s">
@@ -36219,9 +36219,9 @@
       <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -37042,9 +37042,9 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -37865,9 +37865,9 @@
       <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -38688,9 +38688,9 @@
       <selection activeCell="W21" sqref="W21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -39511,9 +39511,9 @@
       <selection activeCell="AK1" sqref="AK1:AQ14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -40375,9 +40375,9 @@
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.1796875" customWidth="1"/>
+    <col min="1" max="1" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -41367,12 +41367,12 @@
   <dimension ref="A1:CX12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:102">
@@ -45081,12 +45081,12 @@
   <dimension ref="A1:CX48"/>
   <sheetViews>
     <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.26953125" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
@@ -55371,9 +55371,9 @@
       <selection activeCell="AQ30" sqref="AQ30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.1796875" customWidth="1"/>
+    <col min="1" max="1" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:102">
@@ -60009,9 +60009,9 @@
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.7265625" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:52">
@@ -62556,13 +62556,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AZ63"/>
   <sheetViews>
-    <sheetView topLeftCell="B28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="AA44" sqref="AA44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.36328125" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
   </cols>
   <sheetData>
@@ -65038,143 +65038,143 @@
         <v>47</v>
       </c>
       <c r="B21">
-        <f>B15*'Vehicle Loading'!B6/About!$B$42</f>
+        <f>B15*'Vehicle Loading'!B6/About!$B$41</f>
         <v>5.3629535822850578E-4</v>
       </c>
       <c r="C21" s="4">
-        <f>C15*'Vehicle Loading'!C6/About!$B$42</f>
+        <f>C15*'Vehicle Loading'!C6/About!$B$41</f>
         <v>5.449405361944925E-4</v>
       </c>
       <c r="D21" s="4">
-        <f>D15*'Vehicle Loading'!D6/About!$B$42</f>
+        <f>D15*'Vehicle Loading'!D6/About!$B$41</f>
         <v>5.5358571416047923E-4</v>
       </c>
       <c r="E21" s="4">
-        <f>E15*'Vehicle Loading'!E6/About!$B$42</f>
+        <f>E15*'Vehicle Loading'!E6/About!$B$41</f>
         <v>5.6223089212646584E-4</v>
       </c>
       <c r="F21" s="4">
-        <f>F15*'Vehicle Loading'!F6/About!$B$42</f>
+        <f>F15*'Vehicle Loading'!F6/About!$B$41</f>
         <v>5.7087607009245257E-4</v>
       </c>
       <c r="G21" s="4">
-        <f>G15*'Vehicle Loading'!G6/About!$B$42</f>
+        <f>G15*'Vehicle Loading'!G6/About!$B$41</f>
         <v>5.7952124805843918E-4</v>
       </c>
       <c r="H21" s="4">
-        <f>H15*'Vehicle Loading'!H6/About!$B$42</f>
+        <f>H15*'Vehicle Loading'!H6/About!$B$41</f>
         <v>5.8816642602442591E-4</v>
       </c>
       <c r="I21" s="4">
-        <f>I15*'Vehicle Loading'!I6/About!$B$42</f>
+        <f>I15*'Vehicle Loading'!I6/About!$B$41</f>
         <v>5.9681160399041252E-4</v>
       </c>
       <c r="J21" s="4">
-        <f>J15*'Vehicle Loading'!J6/About!$B$42</f>
+        <f>J15*'Vehicle Loading'!J6/About!$B$41</f>
         <v>6.0545678195639925E-4</v>
       </c>
       <c r="K21" s="4">
-        <f>K15*'Vehicle Loading'!K6/About!$B$42</f>
+        <f>K15*'Vehicle Loading'!K6/About!$B$41</f>
         <v>6.1410195992238586E-4</v>
       </c>
       <c r="L21" s="4">
-        <f>L15*'Vehicle Loading'!L6/About!$B$42</f>
+        <f>L15*'Vehicle Loading'!L6/About!$B$41</f>
         <v>6.2274713788837259E-4</v>
       </c>
       <c r="M21" s="4">
-        <f>M15*'Vehicle Loading'!M6/About!$B$42</f>
+        <f>M15*'Vehicle Loading'!M6/About!$B$41</f>
         <v>6.313923158543592E-4</v>
       </c>
       <c r="N21" s="4">
-        <f>N15*'Vehicle Loading'!N6/About!$B$42</f>
+        <f>N15*'Vehicle Loading'!N6/About!$B$41</f>
         <v>6.3168483725975499E-4</v>
       </c>
       <c r="O21" s="4">
-        <f>O15*'Vehicle Loading'!O6/About!$B$42</f>
+        <f>O15*'Vehicle Loading'!O6/About!$B$41</f>
         <v>6.5706371528782403E-4</v>
       </c>
       <c r="P21" s="4">
-        <f>P15*'Vehicle Loading'!P6/About!$B$42</f>
+        <f>P15*'Vehicle Loading'!P6/About!$B$41</f>
         <v>6.5690673396269223E-4</v>
       </c>
       <c r="Q21" s="4">
-        <f>Q15*'Vehicle Loading'!Q6/About!$B$42</f>
+        <f>Q15*'Vehicle Loading'!Q6/About!$B$41</f>
         <v>6.5647684339149371E-4</v>
       </c>
       <c r="R21" s="4">
-        <f>R15*'Vehicle Loading'!R6/About!$B$42</f>
+        <f>R15*'Vehicle Loading'!R6/About!$B$41</f>
         <v>6.5633684825868051E-4</v>
       </c>
       <c r="S21" s="4">
-        <f>S15*'Vehicle Loading'!S6/About!$B$42</f>
+        <f>S15*'Vehicle Loading'!S6/About!$B$41</f>
         <v>6.5565361284050498E-4</v>
       </c>
       <c r="T21" s="4">
-        <f>T15*'Vehicle Loading'!T6/About!$B$42</f>
+        <f>T15*'Vehicle Loading'!T6/About!$B$41</f>
         <v>6.5549561698635488E-4</v>
       </c>
       <c r="U21" s="4">
-        <f>U15*'Vehicle Loading'!U6/About!$B$42</f>
+        <f>U15*'Vehicle Loading'!U6/About!$B$41</f>
         <v>6.5535466674277387E-4</v>
       </c>
       <c r="V21" s="4">
-        <f>V15*'Vehicle Loading'!V6/About!$B$42</f>
+        <f>V15*'Vehicle Loading'!V6/About!$B$41</f>
         <v>6.5425514772076234E-4</v>
       </c>
       <c r="W21" s="4">
-        <f>W15*'Vehicle Loading'!W6/About!$B$42</f>
+        <f>W15*'Vehicle Loading'!W6/About!$B$41</f>
         <v>6.5408936694762176E-4</v>
       </c>
       <c r="X21" s="4">
-        <f>X15*'Vehicle Loading'!X6/About!$B$42</f>
+        <f>X15*'Vehicle Loading'!X6/About!$B$41</f>
         <v>6.5388618370211332E-4</v>
       </c>
       <c r="Y21" s="4">
-        <f>Y15*'Vehicle Loading'!Y6/About!$B$42</f>
+        <f>Y15*'Vehicle Loading'!Y6/About!$B$41</f>
         <v>6.5306534642799315E-4</v>
       </c>
       <c r="Z21" s="4">
-        <f>Z15*'Vehicle Loading'!Z6/About!$B$42</f>
+        <f>Z15*'Vehicle Loading'!Z6/About!$B$41</f>
         <v>6.5289881822591233E-4</v>
       </c>
       <c r="AA21" s="4">
-        <f>AA15*'Vehicle Loading'!AA6/About!$B$42</f>
+        <f>AA15*'Vehicle Loading'!AA6/About!$B$41</f>
         <v>6.5273501912663397E-4</v>
       </c>
       <c r="AB21" s="4">
-        <f>AB15*'Vehicle Loading'!AB6/About!$B$42</f>
+        <f>AB15*'Vehicle Loading'!AB6/About!$B$41</f>
         <v>6.5257305569402983E-4</v>
       </c>
       <c r="AC21" s="4">
-        <f>AC15*'Vehicle Loading'!AC6/About!$B$42</f>
+        <f>AC15*'Vehicle Loading'!AC6/About!$B$41</f>
         <v>6.5240833589391971E-4</v>
       </c>
       <c r="AD21" s="4">
-        <f>AD15*'Vehicle Loading'!AD6/About!$B$42</f>
+        <f>AD15*'Vehicle Loading'!AD6/About!$B$41</f>
         <v>6.522449962519032E-4</v>
       </c>
       <c r="AE21" s="4">
-        <f>AE15*'Vehicle Loading'!AE6/About!$B$42</f>
+        <f>AE15*'Vehicle Loading'!AE6/About!$B$41</f>
         <v>6.5208837848748993E-4</v>
       </c>
       <c r="AF21" s="4">
-        <f>AF15*'Vehicle Loading'!AF6/About!$B$42</f>
+        <f>AF15*'Vehicle Loading'!AF6/About!$B$41</f>
         <v>6.519333674602578E-4</v>
       </c>
       <c r="AG21" s="4">
-        <f>AG15*'Vehicle Loading'!AG6/About!$B$42</f>
+        <f>AG15*'Vehicle Loading'!AG6/About!$B$41</f>
         <v>6.5176577574670874E-4</v>
       </c>
       <c r="AH21" s="4">
-        <f>AH15*'Vehicle Loading'!AH6/About!$B$42</f>
+        <f>AH15*'Vehicle Loading'!AH6/About!$B$41</f>
         <v>6.5161748123815518E-4</v>
       </c>
       <c r="AI21" s="4">
-        <f>AI15*'Vehicle Loading'!AI6/About!$B$42</f>
+        <f>AI15*'Vehicle Loading'!AI6/About!$B$41</f>
         <v>6.5146919866966157E-4</v>
       </c>
       <c r="AJ21" s="4">
-        <f>AJ15*'Vehicle Loading'!AJ6/About!$B$42</f>
+        <f>AJ15*'Vehicle Loading'!AJ6/About!$B$41</f>
         <v>6.5132117417568902E-4</v>
       </c>
     </row>
@@ -65183,143 +65183,143 @@
         <v>48</v>
       </c>
       <c r="B22">
-        <f>B16*'Vehicle Loading'!B7/About!$B$42</f>
+        <f>B16*'Vehicle Loading'!B7/About!$B$41</f>
         <v>5.5921668420669153E-3</v>
       </c>
       <c r="C22" s="4">
-        <f>C16*'Vehicle Loading'!C6/About!$B$42</f>
+        <f>C16*'Vehicle Loading'!C6/About!$B$41</f>
         <v>5.7818358085996475E-4</v>
       </c>
       <c r="D22" s="4">
-        <f>D16*'Vehicle Loading'!D6/About!$B$42</f>
+        <f>D16*'Vehicle Loading'!D6/About!$B$41</f>
         <v>6.0013327202936299E-4</v>
       </c>
       <c r="E22" s="4">
-        <f>E16*'Vehicle Loading'!E6/About!$B$42</f>
+        <f>E16*'Vehicle Loading'!E6/About!$B$41</f>
         <v>6.2208296319876124E-4</v>
       </c>
       <c r="F22" s="4">
-        <f>F16*'Vehicle Loading'!F6/About!$B$42</f>
+        <f>F16*'Vehicle Loading'!F6/About!$B$41</f>
         <v>6.440326543681597E-4</v>
       </c>
       <c r="G22" s="4">
-        <f>G16*'Vehicle Loading'!G6/About!$B$42</f>
+        <f>G16*'Vehicle Loading'!G6/About!$B$41</f>
         <v>6.6598234553755795E-4</v>
       </c>
       <c r="H22" s="4">
-        <f>H16*'Vehicle Loading'!H6/About!$B$42</f>
+        <f>H16*'Vehicle Loading'!H6/About!$B$41</f>
         <v>6.879320367069562E-4</v>
       </c>
       <c r="I22" s="4">
-        <f>I16*'Vehicle Loading'!I6/About!$B$42</f>
+        <f>I16*'Vehicle Loading'!I6/About!$B$41</f>
         <v>7.0988172787635456E-4</v>
       </c>
       <c r="J22" s="4">
-        <f>J16*'Vehicle Loading'!J6/About!$B$42</f>
+        <f>J16*'Vehicle Loading'!J6/About!$B$41</f>
         <v>7.318314190457528E-4</v>
       </c>
       <c r="K22" s="4">
-        <f>K16*'Vehicle Loading'!K6/About!$B$42</f>
+        <f>K16*'Vehicle Loading'!K6/About!$B$41</f>
         <v>7.5378111021515105E-4</v>
       </c>
       <c r="L22" s="4">
-        <f>L16*'Vehicle Loading'!L6/About!$B$42</f>
+        <f>L16*'Vehicle Loading'!L6/About!$B$41</f>
         <v>7.7573080138454941E-4</v>
       </c>
       <c r="M22" s="4">
-        <f>M16*'Vehicle Loading'!M6/About!$B$42</f>
+        <f>M16*'Vehicle Loading'!M6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="N22" s="4">
-        <f>N16*'Vehicle Loading'!N6/About!$B$42</f>
+        <f>N16*'Vehicle Loading'!N6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="O22" s="4">
-        <f>O16*'Vehicle Loading'!O6/About!$B$42</f>
+        <f>O16*'Vehicle Loading'!O6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="P22" s="4">
-        <f>P16*'Vehicle Loading'!P6/About!$B$42</f>
+        <f>P16*'Vehicle Loading'!P6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="Q22" s="4">
-        <f>Q16*'Vehicle Loading'!Q6/About!$B$42</f>
+        <f>Q16*'Vehicle Loading'!Q6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="R22" s="4">
-        <f>R16*'Vehicle Loading'!R6/About!$B$42</f>
+        <f>R16*'Vehicle Loading'!R6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="S22" s="4">
-        <f>S16*'Vehicle Loading'!S6/About!$B$42</f>
+        <f>S16*'Vehicle Loading'!S6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="T22" s="4">
-        <f>T16*'Vehicle Loading'!T6/About!$B$42</f>
+        <f>T16*'Vehicle Loading'!T6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="U22" s="4">
-        <f>U16*'Vehicle Loading'!U6/About!$B$42</f>
+        <f>U16*'Vehicle Loading'!U6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="V22" s="4">
-        <f>V16*'Vehicle Loading'!V6/About!$B$42</f>
+        <f>V16*'Vehicle Loading'!V6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="W22" s="4">
-        <f>W16*'Vehicle Loading'!W6/About!$B$42</f>
+        <f>W16*'Vehicle Loading'!W6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="X22" s="4">
-        <f>X16*'Vehicle Loading'!X6/About!$B$42</f>
+        <f>X16*'Vehicle Loading'!X6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="Y22" s="4">
-        <f>Y16*'Vehicle Loading'!Y6/About!$B$42</f>
+        <f>Y16*'Vehicle Loading'!Y6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="Z22" s="4">
-        <f>Z16*'Vehicle Loading'!Z6/About!$B$42</f>
+        <f>Z16*'Vehicle Loading'!Z6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="AA22" s="4">
-        <f>AA16*'Vehicle Loading'!AA6/About!$B$42</f>
+        <f>AA16*'Vehicle Loading'!AA6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="AB22" s="4">
-        <f>AB16*'Vehicle Loading'!AB6/About!$B$42</f>
+        <f>AB16*'Vehicle Loading'!AB6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="AC22" s="4">
-        <f>AC16*'Vehicle Loading'!AC6/About!$B$42</f>
+        <f>AC16*'Vehicle Loading'!AC6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="AD22" s="4">
-        <f>AD16*'Vehicle Loading'!AD6/About!$B$42</f>
+        <f>AD16*'Vehicle Loading'!AD6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="AE22" s="4">
-        <f>AE16*'Vehicle Loading'!AE6/About!$B$42</f>
+        <f>AE16*'Vehicle Loading'!AE6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="AF22" s="4">
-        <f>AF16*'Vehicle Loading'!AF6/About!$B$42</f>
+        <f>AF16*'Vehicle Loading'!AF6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="AG22" s="4">
-        <f>AG16*'Vehicle Loading'!AG6/About!$B$42</f>
+        <f>AG16*'Vehicle Loading'!AG6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="AH22" s="4">
-        <f>AH16*'Vehicle Loading'!AH6/About!$B$42</f>
+        <f>AH16*'Vehicle Loading'!AH6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="AI22" s="4">
-        <f>AI16*'Vehicle Loading'!AI6/About!$B$42</f>
+        <f>AI16*'Vehicle Loading'!AI6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="AJ22" s="4">
-        <f>AJ16*'Vehicle Loading'!AJ6/About!$B$42</f>
+        <f>AJ16*'Vehicle Loading'!AJ6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
     </row>
@@ -65328,143 +65328,143 @@
         <v>49</v>
       </c>
       <c r="B23">
-        <f>B17*'Vehicle Loading'!B8/About!$B$42</f>
+        <f>B17*'Vehicle Loading'!B8/About!$B$41</f>
         <v>9.8331369384115986E-4</v>
       </c>
       <c r="C23">
-        <f>C17*'Vehicle Loading'!C6/About!$B$42</f>
+        <f>C17*'Vehicle Loading'!C6/About!$B$41</f>
         <v>4.2505320149866004E-4</v>
       </c>
       <c r="D23">
-        <f>D17*'Vehicle Loading'!D6/About!$B$42</f>
+        <f>D17*'Vehicle Loading'!D6/About!$B$41</f>
         <v>4.3974422869374005E-4</v>
       </c>
       <c r="E23">
-        <f>E17*'Vehicle Loading'!E6/About!$B$42</f>
+        <f>E17*'Vehicle Loading'!E6/About!$B$41</f>
         <v>4.5443525588882011E-4</v>
       </c>
       <c r="F23">
-        <f>F17*'Vehicle Loading'!F6/About!$B$42</f>
+        <f>F17*'Vehicle Loading'!F6/About!$B$41</f>
         <v>4.6912628308390007E-4</v>
       </c>
       <c r="G23">
-        <f>G17*'Vehicle Loading'!G6/About!$B$42</f>
+        <f>G17*'Vehicle Loading'!G6/About!$B$41</f>
         <v>4.8381731027898013E-4</v>
       </c>
       <c r="H23">
-        <f>H17*'Vehicle Loading'!H6/About!$B$42</f>
+        <f>H17*'Vehicle Loading'!H6/About!$B$41</f>
         <v>4.9850833747406014E-4</v>
       </c>
       <c r="I23">
-        <f>I17*'Vehicle Loading'!I6/About!$B$42</f>
+        <f>I17*'Vehicle Loading'!I6/About!$B$41</f>
         <v>5.1319936466914014E-4</v>
       </c>
       <c r="J23">
-        <f>J17*'Vehicle Loading'!J6/About!$B$42</f>
+        <f>J17*'Vehicle Loading'!J6/About!$B$41</f>
         <v>5.2789039186422015E-4</v>
       </c>
       <c r="K23">
-        <f>K17*'Vehicle Loading'!K6/About!$B$42</f>
+        <f>K17*'Vehicle Loading'!K6/About!$B$41</f>
         <v>5.4258141905930016E-4</v>
       </c>
       <c r="L23">
-        <f>L17*'Vehicle Loading'!L6/About!$B$42</f>
+        <f>L17*'Vehicle Loading'!L6/About!$B$41</f>
         <v>5.5727244625438017E-4</v>
       </c>
       <c r="M23">
-        <f>M17*'Vehicle Loading'!M6/About!$B$42</f>
+        <f>M17*'Vehicle Loading'!M6/About!$B$41</f>
         <v>5.7196347344946018E-4</v>
       </c>
       <c r="N23">
-        <f>N17*'Vehicle Loading'!N6/About!$B$42</f>
+        <f>N17*'Vehicle Loading'!N6/About!$B$41</f>
         <v>5.7198064128111343E-4</v>
       </c>
       <c r="O23">
-        <f>O17*'Vehicle Loading'!O6/About!$B$42</f>
+        <f>O17*'Vehicle Loading'!O6/About!$B$41</f>
         <v>5.9487105158312229E-4</v>
       </c>
       <c r="P23">
-        <f>P17*'Vehicle Loading'!P6/About!$B$42</f>
+        <f>P17*'Vehicle Loading'!P6/About!$B$41</f>
         <v>5.9486821539584637E-4</v>
       </c>
       <c r="Q23">
-        <f>Q17*'Vehicle Loading'!Q6/About!$B$42</f>
+        <f>Q17*'Vehicle Loading'!Q6/About!$B$41</f>
         <v>5.9483739236650991E-4</v>
       </c>
       <c r="R23">
-        <f>R17*'Vehicle Loading'!R6/About!$B$42</f>
+        <f>R17*'Vehicle Loading'!R6/About!$B$41</f>
         <v>5.9483590211542418E-4</v>
       </c>
       <c r="S23">
-        <f>S17*'Vehicle Loading'!S6/About!$B$42</f>
+        <f>S17*'Vehicle Loading'!S6/About!$B$41</f>
         <v>5.9476850508464064E-4</v>
       </c>
       <c r="T23">
-        <f>T17*'Vehicle Loading'!T6/About!$B$42</f>
+        <f>T17*'Vehicle Loading'!T6/About!$B$41</f>
         <v>5.9476417074891654E-4</v>
       </c>
       <c r="U23">
-        <f>U17*'Vehicle Loading'!U6/About!$B$42</f>
+        <f>U17*'Vehicle Loading'!U6/About!$B$41</f>
         <v>5.9476127354511469E-4</v>
       </c>
       <c r="V23">
-        <f>V17*'Vehicle Loading'!V6/About!$B$42</f>
+        <f>V17*'Vehicle Loading'!V6/About!$B$41</f>
         <v>5.94650865410408E-4</v>
       </c>
       <c r="W23">
-        <f>W17*'Vehicle Loading'!W6/About!$B$42</f>
+        <f>W17*'Vehicle Loading'!W6/About!$B$41</f>
         <v>5.9464580611561998E-4</v>
       </c>
       <c r="X23">
-        <f>X17*'Vehicle Loading'!X6/About!$B$42</f>
+        <f>X17*'Vehicle Loading'!X6/About!$B$41</f>
         <v>5.946375035433282E-4</v>
       </c>
       <c r="Y23">
-        <f>Y17*'Vehicle Loading'!Y6/About!$B$42</f>
+        <f>Y17*'Vehicle Loading'!Y6/About!$B$41</f>
         <v>5.9456479055347902E-4</v>
       </c>
       <c r="Z23">
-        <f>Z17*'Vehicle Loading'!Z6/About!$B$42</f>
+        <f>Z17*'Vehicle Loading'!Z6/About!$B$41</f>
         <v>5.9455852484256993E-4</v>
       </c>
       <c r="AA23">
-        <f>AA17*'Vehicle Loading'!AA6/About!$B$42</f>
+        <f>AA17*'Vehicle Loading'!AA6/About!$B$41</f>
         <v>5.9455187977621761E-4</v>
       </c>
       <c r="AB23">
-        <f>AB17*'Vehicle Loading'!AB6/About!$B$42</f>
+        <f>AB17*'Vehicle Loading'!AB6/About!$B$41</f>
         <v>5.9454477826112234E-4</v>
       </c>
       <c r="AC23">
-        <f>AC17*'Vehicle Loading'!AC6/About!$B$42</f>
+        <f>AC17*'Vehicle Loading'!AC6/About!$B$41</f>
         <v>5.9453718400702383E-4</v>
       </c>
       <c r="AD23">
-        <f>AD17*'Vehicle Loading'!AD6/About!$B$42</f>
+        <f>AD17*'Vehicle Loading'!AD6/About!$B$41</f>
         <v>5.9452923502973146E-4</v>
       </c>
       <c r="AE23">
-        <f>AE17*'Vehicle Loading'!AE6/About!$B$42</f>
+        <f>AE17*'Vehicle Loading'!AE6/About!$B$41</f>
         <v>5.9452155663111705E-4</v>
       </c>
       <c r="AF23">
-        <f>AF17*'Vehicle Loading'!AF6/About!$B$42</f>
+        <f>AF17*'Vehicle Loading'!AF6/About!$B$41</f>
         <v>5.9451359806417031E-4</v>
       </c>
       <c r="AG23">
-        <f>AG17*'Vehicle Loading'!AG6/About!$B$42</f>
+        <f>AG17*'Vehicle Loading'!AG6/About!$B$41</f>
         <v>5.9450417951936014E-4</v>
       </c>
       <c r="AH23">
-        <f>AH17*'Vehicle Loading'!AH6/About!$B$42</f>
+        <f>AH17*'Vehicle Loading'!AH6/About!$B$41</f>
         <v>5.9449653731698997E-4</v>
       </c>
       <c r="AI23">
-        <f>AI17*'Vehicle Loading'!AI6/About!$B$42</f>
+        <f>AI17*'Vehicle Loading'!AI6/About!$B$41</f>
         <v>5.9448860253614663E-4</v>
       </c>
       <c r="AJ23">
-        <f>AJ17*'Vehicle Loading'!AJ6/About!$B$42</f>
+        <f>AJ17*'Vehicle Loading'!AJ6/About!$B$41</f>
         <v>5.9448040187743616E-4</v>
       </c>
     </row>
@@ -65473,143 +65473,143 @@
         <v>52</v>
       </c>
       <c r="B24">
-        <f>B18*'Vehicle Loading'!B9/About!$B$42</f>
+        <f>B18*'Vehicle Loading'!B9/About!$B$41</f>
         <v>5.1557245454243749E-4</v>
       </c>
       <c r="C24">
-        <f>C18*'Vehicle Loading'!C6/About!$B$42</f>
+        <f>C18*'Vehicle Loading'!C6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="D24">
-        <f>D18*'Vehicle Loading'!D6/About!$B$42</f>
+        <f>D18*'Vehicle Loading'!D6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="E24">
-        <f>E18*'Vehicle Loading'!E6/About!$B$42</f>
+        <f>E18*'Vehicle Loading'!E6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="F24">
-        <f>F18*'Vehicle Loading'!F6/About!$B$42</f>
+        <f>F18*'Vehicle Loading'!F6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="G24">
-        <f>G18*'Vehicle Loading'!G6/About!$B$42</f>
+        <f>G18*'Vehicle Loading'!G6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="H24">
-        <f>H18*'Vehicle Loading'!H6/About!$B$42</f>
+        <f>H18*'Vehicle Loading'!H6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="I24">
-        <f>I18*'Vehicle Loading'!I6/About!$B$42</f>
+        <f>I18*'Vehicle Loading'!I6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="J24">
-        <f>J18*'Vehicle Loading'!J6/About!$B$42</f>
+        <f>J18*'Vehicle Loading'!J6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="K24">
-        <f>K18*'Vehicle Loading'!K6/About!$B$42</f>
+        <f>K18*'Vehicle Loading'!K6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="L24">
-        <f>L18*'Vehicle Loading'!L6/About!$B$42</f>
+        <f>L18*'Vehicle Loading'!L6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="M24">
-        <f>M18*'Vehicle Loading'!M6/About!$B$42</f>
+        <f>M18*'Vehicle Loading'!M6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="N24">
-        <f>N18*'Vehicle Loading'!N6/About!$B$42</f>
+        <f>N18*'Vehicle Loading'!N6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="O24">
-        <f>O18*'Vehicle Loading'!O6/About!$B$42</f>
+        <f>O18*'Vehicle Loading'!O6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="P24">
-        <f>P18*'Vehicle Loading'!P6/About!$B$42</f>
+        <f>P18*'Vehicle Loading'!P6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="Q24">
-        <f>Q18*'Vehicle Loading'!Q6/About!$B$42</f>
+        <f>Q18*'Vehicle Loading'!Q6/About!$B$41</f>
         <v>1.9340822250365416E-3</v>
       </c>
       <c r="R24">
-        <f>R18*'Vehicle Loading'!R6/About!$B$42</f>
+        <f>R18*'Vehicle Loading'!R6/About!$B$41</f>
         <v>1.9002970614769785E-3</v>
       </c>
       <c r="S24">
-        <f>S18*'Vehicle Loading'!S6/About!$B$42</f>
+        <f>S18*'Vehicle Loading'!S6/About!$B$41</f>
         <v>1.8056082984875188E-3</v>
       </c>
       <c r="T24">
-        <f>T18*'Vehicle Loading'!T6/About!$B$42</f>
+        <f>T18*'Vehicle Loading'!T6/About!$B$41</f>
         <v>1.7497787572125557E-3</v>
       </c>
       <c r="U24">
-        <f>U18*'Vehicle Loading'!U6/About!$B$42</f>
+        <f>U18*'Vehicle Loading'!U6/About!$B$41</f>
         <v>1.6843499089638154E-3</v>
       </c>
       <c r="V24">
-        <f>V18*'Vehicle Loading'!V6/About!$B$42</f>
+        <f>V18*'Vehicle Loading'!V6/About!$B$41</f>
         <v>1.6266343214836161E-3</v>
       </c>
       <c r="W24">
-        <f>W18*'Vehicle Loading'!W6/About!$B$42</f>
+        <f>W18*'Vehicle Loading'!W6/About!$B$41</f>
         <v>1.5858572159115124E-3</v>
       </c>
       <c r="X24">
-        <f>X18*'Vehicle Loading'!X6/About!$B$42</f>
+        <f>X18*'Vehicle Loading'!X6/About!$B$41</f>
         <v>1.6044188746767785E-3</v>
       </c>
       <c r="Y24">
-        <f>Y18*'Vehicle Loading'!Y6/About!$B$42</f>
+        <f>Y18*'Vehicle Loading'!Y6/About!$B$41</f>
         <v>1.6231962245113003E-3</v>
       </c>
       <c r="Z24">
-        <f>Z18*'Vehicle Loading'!Z6/About!$B$42</f>
+        <f>Z18*'Vehicle Loading'!Z6/About!$B$41</f>
         <v>1.6421914324889232E-3</v>
       </c>
       <c r="AA24">
-        <f>AA18*'Vehicle Loading'!AA6/About!$B$42</f>
+        <f>AA18*'Vehicle Loading'!AA6/About!$B$41</f>
         <v>1.6614072457635646E-3</v>
       </c>
       <c r="AB24">
-        <f>AB18*'Vehicle Loading'!AB6/About!$B$42</f>
+        <f>AB18*'Vehicle Loading'!AB6/About!$B$41</f>
         <v>1.680846151064214E-3</v>
       </c>
       <c r="AC24">
-        <f>AC18*'Vehicle Loading'!AC6/About!$B$42</f>
+        <f>AC18*'Vehicle Loading'!AC6/About!$B$41</f>
         <v>1.700510650162457E-3</v>
       </c>
       <c r="AD24">
-        <f>AD18*'Vehicle Loading'!AD6/About!$B$42</f>
+        <f>AD18*'Vehicle Loading'!AD6/About!$B$41</f>
         <v>1.7204035804677799E-3</v>
       </c>
       <c r="AE24">
-        <f>AE18*'Vehicle Loading'!AE6/About!$B$42</f>
+        <f>AE18*'Vehicle Loading'!AE6/About!$B$41</f>
         <v>1.7405270695672163E-3</v>
       </c>
       <c r="AF24">
-        <f>AF18*'Vehicle Loading'!AF6/About!$B$42</f>
+        <f>AF18*'Vehicle Loading'!AF6/About!$B$41</f>
         <v>1.7608839266653876E-3</v>
       </c>
       <c r="AG24">
-        <f>AG18*'Vehicle Loading'!AG6/About!$B$42</f>
+        <f>AG18*'Vehicle Loading'!AG6/About!$B$41</f>
         <v>1.7814769459243201E-3</v>
       </c>
       <c r="AH24">
-        <f>AH18*'Vehicle Loading'!AH6/About!$B$42</f>
+        <f>AH18*'Vehicle Loading'!AH6/About!$B$41</f>
         <v>1.8042079616928898E-3</v>
       </c>
       <c r="AI24">
-        <f>AI18*'Vehicle Loading'!AI6/About!$B$42</f>
+        <f>AI18*'Vehicle Loading'!AI6/About!$B$41</f>
         <v>1.8253125871299277E-3</v>
       </c>
       <c r="AJ24">
-        <f>AJ18*'Vehicle Loading'!AJ6/About!$B$42</f>
+        <f>AJ18*'Vehicle Loading'!AJ6/About!$B$41</f>
         <v>1.8466633771132559E-3</v>
       </c>
     </row>
@@ -67369,147 +67369,147 @@
         <v>47</v>
       </c>
       <c r="B51">
-        <f>B44*'Vehicle Loading'!$B$6/About!$B$42</f>
+        <f>B44*'Vehicle Loading'!$B$6/About!$B$41</f>
         <v>5.3629535822850578E-4</v>
       </c>
       <c r="C51">
-        <f>C44*'Vehicle Loading'!$B$6/About!$B$42</f>
+        <f>C44*'Vehicle Loading'!$B$6/About!$B$41</f>
         <v>5.3629535822850578E-4</v>
       </c>
       <c r="D51">
-        <f>D44*'Vehicle Loading'!$B$6/About!$B$42</f>
+        <f>D44*'Vehicle Loading'!$B$6/About!$B$41</f>
         <v>5.3629535822850578E-4</v>
       </c>
       <c r="E51">
-        <f>E44*'Vehicle Loading'!$B$6/About!$B$42</f>
+        <f>E44*'Vehicle Loading'!$B$6/About!$B$41</f>
         <v>5.3629535822850578E-4</v>
       </c>
       <c r="F51">
-        <f>F44*'Vehicle Loading'!$B$6/About!$B$42</f>
+        <f>F44*'Vehicle Loading'!$B$6/About!$B$41</f>
         <v>5.3629535822850578E-4</v>
       </c>
       <c r="G51">
-        <f>G44*'Vehicle Loading'!$B$6/About!$B$42</f>
+        <f>G44*'Vehicle Loading'!$B$6/About!$B$41</f>
         <v>5.3629535822850578E-4</v>
       </c>
       <c r="H51">
-        <f>H44*'Vehicle Loading'!$B$6/About!$B$42</f>
+        <f>H44*'Vehicle Loading'!$B$6/About!$B$41</f>
         <v>5.3629535822850578E-4</v>
       </c>
       <c r="I51">
-        <f>I44*'Vehicle Loading'!$B$6/About!$B$42</f>
+        <f>I44*'Vehicle Loading'!$B$6/About!$B$41</f>
         <v>5.3629535822850578E-4</v>
       </c>
       <c r="J51">
-        <f>J44*'Vehicle Loading'!$B$6/About!$B$42</f>
+        <f>J44*'Vehicle Loading'!$B$6/About!$B$41</f>
         <v>5.3629535822850578E-4</v>
       </c>
       <c r="K51">
-        <f>K44*'Vehicle Loading'!$B$6/About!$B$42</f>
+        <f>K44*'Vehicle Loading'!$B$6/About!$B$41</f>
         <v>5.3629535822850578E-4</v>
       </c>
       <c r="L51">
-        <f>L44*'Vehicle Loading'!L6/About!$B$42</f>
+        <f>L44*'Vehicle Loading'!L6/About!$B$41</f>
         <v>5.3629535822850578E-4</v>
       </c>
       <c r="M51">
-        <f>M44*'Vehicle Loading'!M6/About!$B$42</f>
+        <f>M44*'Vehicle Loading'!M6/About!$B$41</f>
         <v>5.3629535822850578E-4</v>
       </c>
       <c r="N51">
-        <f>N44*'Vehicle Loading'!N6/About!$B$42</f>
+        <f>N44*'Vehicle Loading'!N6/About!$B$41</f>
         <v>5.3629535822850578E-4</v>
       </c>
       <c r="O51">
-        <f>O44*'Vehicle Loading'!O6/About!$B$42</f>
+        <f>O44*'Vehicle Loading'!O6/About!$B$41</f>
         <v>5.3629535822850578E-4</v>
       </c>
       <c r="P51">
-        <f>P44*'Vehicle Loading'!P6/About!$B$42</f>
+        <f>P44*'Vehicle Loading'!P6/About!$B$41</f>
         <v>5.3629535822850578E-4</v>
       </c>
       <c r="Q51">
-        <f>Q44*'Vehicle Loading'!Q6/About!$B$42</f>
+        <f>Q44*'Vehicle Loading'!Q6/About!$B$41</f>
         <v>6.313923158543592E-4</v>
       </c>
       <c r="R51">
-        <f>R44*'Vehicle Loading'!R6/About!$B$42</f>
+        <f>R44*'Vehicle Loading'!R6/About!$B$41</f>
         <v>6.3168483725975499E-4</v>
       </c>
       <c r="S51">
-        <f>S44*'Vehicle Loading'!S6/About!$B$42</f>
+        <f>S44*'Vehicle Loading'!S6/About!$B$41</f>
         <v>6.5706371528782403E-4</v>
       </c>
       <c r="T51">
-        <f>T44*'Vehicle Loading'!T6/About!$B$42</f>
+        <f>T44*'Vehicle Loading'!T6/About!$B$41</f>
         <v>6.5690673396269223E-4</v>
       </c>
       <c r="U51">
-        <f>U44*'Vehicle Loading'!U6/About!$B$42</f>
+        <f>U44*'Vehicle Loading'!U6/About!$B$41</f>
         <v>6.5647684339149371E-4</v>
       </c>
       <c r="V51">
-        <f>V44*'Vehicle Loading'!V6/About!$B$42</f>
+        <f>V44*'Vehicle Loading'!V6/About!$B$41</f>
         <v>6.5633684825868051E-4</v>
       </c>
       <c r="W51">
-        <f>W44*'Vehicle Loading'!W6/About!$B$42</f>
+        <f>W44*'Vehicle Loading'!W6/About!$B$41</f>
         <v>6.5565361284050498E-4</v>
       </c>
       <c r="X51">
-        <f>X44*'Vehicle Loading'!X6/About!$B$42</f>
+        <f>X44*'Vehicle Loading'!X6/About!$B$41</f>
         <v>6.5549561698635488E-4</v>
       </c>
       <c r="Y51">
-        <f>Y44*'Vehicle Loading'!Y6/About!$B$42</f>
+        <f>Y44*'Vehicle Loading'!Y6/About!$B$41</f>
         <v>6.5535466674277387E-4</v>
       </c>
       <c r="Z51">
-        <f>Z44*'Vehicle Loading'!Z6/About!$B$42</f>
+        <f>Z44*'Vehicle Loading'!Z6/About!$B$41</f>
         <v>6.5425514772076234E-4</v>
       </c>
       <c r="AA51">
-        <f>AA44*'Vehicle Loading'!AA6/About!$B$42</f>
+        <f>AA44*'Vehicle Loading'!AA6/About!$B$41</f>
         <v>6.5408936694762176E-4</v>
       </c>
       <c r="AB51">
-        <f>AB44*'Vehicle Loading'!AB6/About!$B$42</f>
+        <f>AB44*'Vehicle Loading'!AB6/About!$B$41</f>
         <v>6.5388618370211332E-4</v>
       </c>
       <c r="AC51">
-        <f>AC44*'Vehicle Loading'!AC6/About!$B$42</f>
+        <f>AC44*'Vehicle Loading'!AC6/About!$B$41</f>
         <v>6.5306534642799315E-4</v>
       </c>
       <c r="AD51">
-        <f>AD44*'Vehicle Loading'!AD6/About!$B$42</f>
+        <f>AD44*'Vehicle Loading'!AD6/About!$B$41</f>
         <v>6.5289881822591233E-4</v>
       </c>
       <c r="AE51">
-        <f>AE44*'Vehicle Loading'!AE6/About!$B$42</f>
+        <f>AE44*'Vehicle Loading'!AE6/About!$B$41</f>
         <v>6.5273501912663397E-4</v>
       </c>
       <c r="AF51">
-        <f>AF44*'Vehicle Loading'!AF6/About!$B$42</f>
+        <f>AF44*'Vehicle Loading'!AF6/About!$B$41</f>
         <v>6.5257305569402983E-4</v>
       </c>
       <c r="AG51">
-        <f>AG44*'Vehicle Loading'!AG6/About!$B$42</f>
+        <f>AG44*'Vehicle Loading'!AG6/About!$B$41</f>
         <v>6.5240833589391971E-4</v>
       </c>
       <c r="AH51">
-        <f>AH44*'Vehicle Loading'!AH6/About!$B$42</f>
+        <f>AH44*'Vehicle Loading'!AH6/About!$B$41</f>
         <v>6.522449962519032E-4</v>
       </c>
       <c r="AI51">
-        <f>AI44*'Vehicle Loading'!AI6/About!$B$42</f>
+        <f>AI44*'Vehicle Loading'!AI6/About!$B$41</f>
         <v>6.5208837848748993E-4</v>
       </c>
       <c r="AJ51">
-        <f>AJ44*'Vehicle Loading'!AJ6/About!$B$42</f>
+        <f>AJ44*'Vehicle Loading'!AJ6/About!$B$41</f>
         <v>6.519333674602578E-4</v>
       </c>
       <c r="AK51">
-        <f>AK44*'Vehicle Loading'!AK6/About!$B$42</f>
+        <f>AK44*'Vehicle Loading'!AK6/About!$B$41</f>
         <v>6.5176577574670874E-4</v>
       </c>
     </row>
@@ -67518,147 +67518,147 @@
         <v>48</v>
       </c>
       <c r="B52">
-        <f>B45*'Vehicle Loading'!B6/About!$B$42</f>
+        <f>B45*'Vehicle Loading'!B6/About!$B$41</f>
         <v>5.562338896905665E-4</v>
       </c>
       <c r="C52">
-        <f>C45*'Vehicle Loading'!C6/About!$B$42</f>
+        <f>C45*'Vehicle Loading'!C6/About!$B$41</f>
         <v>5.562338896905665E-4</v>
       </c>
       <c r="D52">
-        <f>D45*'Vehicle Loading'!D6/About!$B$42</f>
+        <f>D45*'Vehicle Loading'!D6/About!$B$41</f>
         <v>5.562338896905665E-4</v>
       </c>
       <c r="E52">
-        <f>E45*'Vehicle Loading'!E6/About!$B$42</f>
+        <f>E45*'Vehicle Loading'!E6/About!$B$41</f>
         <v>5.562338896905665E-4</v>
       </c>
       <c r="F52">
-        <f>F45*'Vehicle Loading'!F6/About!$B$42</f>
+        <f>F45*'Vehicle Loading'!F6/About!$B$41</f>
         <v>5.562338896905665E-4</v>
       </c>
       <c r="G52">
-        <f>G45*'Vehicle Loading'!G6/About!$B$42</f>
+        <f>G45*'Vehicle Loading'!G6/About!$B$41</f>
         <v>5.562338896905665E-4</v>
       </c>
       <c r="H52">
-        <f>H45*'Vehicle Loading'!H6/About!$B$42</f>
+        <f>H45*'Vehicle Loading'!H6/About!$B$41</f>
         <v>5.562338896905665E-4</v>
       </c>
       <c r="I52">
-        <f>I45*'Vehicle Loading'!I6/About!$B$42</f>
+        <f>I45*'Vehicle Loading'!I6/About!$B$41</f>
         <v>5.562338896905665E-4</v>
       </c>
       <c r="J52">
-        <f>J45*'Vehicle Loading'!J6/About!$B$42</f>
+        <f>J45*'Vehicle Loading'!J6/About!$B$41</f>
         <v>5.562338896905665E-4</v>
       </c>
       <c r="K52">
-        <f>K45*'Vehicle Loading'!K6/About!$B$42</f>
+        <f>K45*'Vehicle Loading'!K6/About!$B$41</f>
         <v>5.562338896905665E-4</v>
       </c>
       <c r="L52">
-        <f>L45*'Vehicle Loading'!L6/About!$B$42</f>
+        <f>L45*'Vehicle Loading'!L6/About!$B$41</f>
         <v>5.562338896905665E-4</v>
       </c>
       <c r="M52">
-        <f>M45*'Vehicle Loading'!M6/About!$B$42</f>
+        <f>M45*'Vehicle Loading'!M6/About!$B$41</f>
         <v>5.562338896905665E-4</v>
       </c>
       <c r="N52">
-        <f>N45*'Vehicle Loading'!N6/About!$B$42</f>
+        <f>N45*'Vehicle Loading'!N6/About!$B$41</f>
         <v>5.562338896905665E-4</v>
       </c>
       <c r="O52">
-        <f>O45*'Vehicle Loading'!O6/About!$B$42</f>
+        <f>O45*'Vehicle Loading'!O6/About!$B$41</f>
         <v>5.562338896905665E-4</v>
       </c>
       <c r="P52">
-        <f>P45*'Vehicle Loading'!P6/About!$B$42</f>
+        <f>P45*'Vehicle Loading'!P6/About!$B$41</f>
         <v>5.562338896905665E-4</v>
       </c>
       <c r="Q52">
-        <f>Q45*'Vehicle Loading'!Q6/About!$B$42</f>
+        <f>Q45*'Vehicle Loading'!Q6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="R52">
-        <f>R45*'Vehicle Loading'!R6/About!$B$42</f>
+        <f>R45*'Vehicle Loading'!R6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="S52">
-        <f>S45*'Vehicle Loading'!S6/About!$B$42</f>
+        <f>S45*'Vehicle Loading'!S6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="T52">
-        <f>T45*'Vehicle Loading'!T6/About!$B$42</f>
+        <f>T45*'Vehicle Loading'!T6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="U52">
-        <f>U45*'Vehicle Loading'!U6/About!$B$42</f>
+        <f>U45*'Vehicle Loading'!U6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="V52">
-        <f>V45*'Vehicle Loading'!V6/About!$B$42</f>
+        <f>V45*'Vehicle Loading'!V6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="W52">
-        <f>W45*'Vehicle Loading'!W6/About!$B$42</f>
+        <f>W45*'Vehicle Loading'!W6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="X52">
-        <f>X45*'Vehicle Loading'!X6/About!$B$42</f>
+        <f>X45*'Vehicle Loading'!X6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="Y52">
-        <f>Y45*'Vehicle Loading'!Y6/About!$B$42</f>
+        <f>Y45*'Vehicle Loading'!Y6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="Z52">
-        <f>Z45*'Vehicle Loading'!Z6/About!$B$42</f>
+        <f>Z45*'Vehicle Loading'!Z6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="AA52">
-        <f>AA45*'Vehicle Loading'!AA6/About!$B$42</f>
+        <f>AA45*'Vehicle Loading'!AA6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="AB52">
-        <f>AB45*'Vehicle Loading'!AB6/About!$B$42</f>
+        <f>AB45*'Vehicle Loading'!AB6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="AC52">
-        <f>AC45*'Vehicle Loading'!AC6/About!$B$42</f>
+        <f>AC45*'Vehicle Loading'!AC6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="AD52">
-        <f>AD45*'Vehicle Loading'!AD6/About!$B$42</f>
+        <f>AD45*'Vehicle Loading'!AD6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="AE52">
-        <f>AE45*'Vehicle Loading'!AE6/About!$B$42</f>
+        <f>AE45*'Vehicle Loading'!AE6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="AF52">
-        <f>AF45*'Vehicle Loading'!AF6/About!$B$42</f>
+        <f>AF45*'Vehicle Loading'!AF6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="AG52">
-        <f>AG45*'Vehicle Loading'!AG6/About!$B$42</f>
+        <f>AG45*'Vehicle Loading'!AG6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="AH52">
-        <f>AH45*'Vehicle Loading'!AH6/About!$B$42</f>
+        <f>AH45*'Vehicle Loading'!AH6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="AI52">
-        <f>AI45*'Vehicle Loading'!AI6/About!$B$42</f>
+        <f>AI45*'Vehicle Loading'!AI6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="AJ52">
-        <f>AJ45*'Vehicle Loading'!AJ6/About!$B$42</f>
+        <f>AJ45*'Vehicle Loading'!AJ6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
       <c r="AK52">
-        <f>AK45*'Vehicle Loading'!AK6/About!$B$42</f>
+        <f>AK45*'Vehicle Loading'!AK6/About!$B$41</f>
         <v>7.9768049255394776E-4</v>
       </c>
     </row>
@@ -67667,147 +67667,147 @@
         <v>49</v>
       </c>
       <c r="B53">
-        <f>B46*'Vehicle Loading'!B6/About!$B$42</f>
+        <f>B46*'Vehicle Loading'!B6/About!$B$41</f>
         <v>4.1036217430358003E-4</v>
       </c>
       <c r="C53">
-        <f>C46*'Vehicle Loading'!C6/About!$B$42</f>
+        <f>C46*'Vehicle Loading'!C6/About!$B$41</f>
         <v>4.1036217430358003E-4</v>
       </c>
       <c r="D53">
-        <f>D46*'Vehicle Loading'!D6/About!$B$42</f>
+        <f>D46*'Vehicle Loading'!D6/About!$B$41</f>
         <v>4.1036217430358003E-4</v>
       </c>
       <c r="E53">
-        <f>E46*'Vehicle Loading'!E6/About!$B$42</f>
+        <f>E46*'Vehicle Loading'!E6/About!$B$41</f>
         <v>4.1036217430358003E-4</v>
       </c>
       <c r="F53">
-        <f>F46*'Vehicle Loading'!F6/About!$B$42</f>
+        <f>F46*'Vehicle Loading'!F6/About!$B$41</f>
         <v>4.1036217430358003E-4</v>
       </c>
       <c r="G53">
-        <f>G46*'Vehicle Loading'!G6/About!$B$42</f>
+        <f>G46*'Vehicle Loading'!G6/About!$B$41</f>
         <v>4.1036217430358003E-4</v>
       </c>
       <c r="H53">
-        <f>H46*'Vehicle Loading'!H6/About!$B$42</f>
+        <f>H46*'Vehicle Loading'!H6/About!$B$41</f>
         <v>4.1036217430358003E-4</v>
       </c>
       <c r="I53">
-        <f>I46*'Vehicle Loading'!I6/About!$B$42</f>
+        <f>I46*'Vehicle Loading'!I6/About!$B$41</f>
         <v>4.1036217430358003E-4</v>
       </c>
       <c r="J53">
-        <f>J46*'Vehicle Loading'!J6/About!$B$42</f>
+        <f>J46*'Vehicle Loading'!J6/About!$B$41</f>
         <v>4.1036217430358003E-4</v>
       </c>
       <c r="K53">
-        <f>K46*'Vehicle Loading'!K6/About!$B$42</f>
+        <f>K46*'Vehicle Loading'!K6/About!$B$41</f>
         <v>4.1036217430358003E-4</v>
       </c>
       <c r="L53">
-        <f>L46*'Vehicle Loading'!L6/About!$B$42</f>
+        <f>L46*'Vehicle Loading'!L6/About!$B$41</f>
         <v>4.1036217430358003E-4</v>
       </c>
       <c r="M53">
-        <f>M46*'Vehicle Loading'!M6/About!$B$42</f>
+        <f>M46*'Vehicle Loading'!M6/About!$B$41</f>
         <v>4.1036217430358003E-4</v>
       </c>
       <c r="N53">
-        <f>N46*'Vehicle Loading'!N6/About!$B$42</f>
+        <f>N46*'Vehicle Loading'!N6/About!$B$41</f>
         <v>4.1036217430358003E-4</v>
       </c>
       <c r="O53">
-        <f>O46*'Vehicle Loading'!O6/About!$B$42</f>
+        <f>O46*'Vehicle Loading'!O6/About!$B$41</f>
         <v>4.1036217430358003E-4</v>
       </c>
       <c r="P53">
-        <f>P46*'Vehicle Loading'!P6/About!$B$42</f>
+        <f>P46*'Vehicle Loading'!P6/About!$B$41</f>
         <v>4.1036217430358003E-4</v>
       </c>
       <c r="Q53">
-        <f>Q46*'Vehicle Loading'!Q6/About!$B$42</f>
+        <f>Q46*'Vehicle Loading'!Q6/About!$B$41</f>
         <v>5.7196347344945974E-4</v>
       </c>
       <c r="R53">
-        <f>R46*'Vehicle Loading'!R6/About!$B$42</f>
+        <f>R46*'Vehicle Loading'!R6/About!$B$41</f>
         <v>5.7198064128111343E-4</v>
       </c>
       <c r="S53">
-        <f>S46*'Vehicle Loading'!S6/About!$B$42</f>
+        <f>S46*'Vehicle Loading'!S6/About!$B$41</f>
         <v>5.9487105158312229E-4</v>
       </c>
       <c r="T53">
-        <f>T46*'Vehicle Loading'!T6/About!$B$42</f>
+        <f>T46*'Vehicle Loading'!T6/About!$B$41</f>
         <v>5.9486821539584637E-4</v>
       </c>
       <c r="U53">
-        <f>U46*'Vehicle Loading'!U6/About!$B$42</f>
+        <f>U46*'Vehicle Loading'!U6/About!$B$41</f>
         <v>5.9483739236650991E-4</v>
       </c>
       <c r="V53">
-        <f>V46*'Vehicle Loading'!V6/About!$B$42</f>
+        <f>V46*'Vehicle Loading'!V6/About!$B$41</f>
         <v>5.9483590211542418E-4</v>
       </c>
       <c r="W53">
-        <f>W46*'Vehicle Loading'!W6/About!$B$42</f>
+        <f>W46*'Vehicle Loading'!W6/About!$B$41</f>
         <v>5.9476850508464064E-4</v>
       </c>
       <c r="X53">
-        <f>X46*'Vehicle Loading'!X6/About!$B$42</f>
+        <f>X46*'Vehicle Loading'!X6/About!$B$41</f>
         <v>5.9476417074891654E-4</v>
       </c>
       <c r="Y53">
-        <f>Y46*'Vehicle Loading'!Y6/About!$B$42</f>
+        <f>Y46*'Vehicle Loading'!Y6/About!$B$41</f>
         <v>5.9476127354511469E-4</v>
       </c>
       <c r="Z53">
-        <f>Z46*'Vehicle Loading'!Z6/About!$B$42</f>
+        <f>Z46*'Vehicle Loading'!Z6/About!$B$41</f>
         <v>5.94650865410408E-4</v>
       </c>
       <c r="AA53">
-        <f>AA46*'Vehicle Loading'!AA6/About!$B$42</f>
+        <f>AA46*'Vehicle Loading'!AA6/About!$B$41</f>
         <v>5.9464580611561998E-4</v>
       </c>
       <c r="AB53">
-        <f>AB46*'Vehicle Loading'!AB6/About!$B$42</f>
+        <f>AB46*'Vehicle Loading'!AB6/About!$B$41</f>
         <v>5.946375035433282E-4</v>
       </c>
       <c r="AC53">
-        <f>AC46*'Vehicle Loading'!AC6/About!$B$42</f>
+        <f>AC46*'Vehicle Loading'!AC6/About!$B$41</f>
         <v>5.9456479055347902E-4</v>
       </c>
       <c r="AD53">
-        <f>AD46*'Vehicle Loading'!AD6/About!$B$42</f>
+        <f>AD46*'Vehicle Loading'!AD6/About!$B$41</f>
         <v>5.9455852484256993E-4</v>
       </c>
       <c r="AE53">
-        <f>AE46*'Vehicle Loading'!AE6/About!$B$42</f>
+        <f>AE46*'Vehicle Loading'!AE6/About!$B$41</f>
         <v>5.9455187977621761E-4</v>
       </c>
       <c r="AF53">
-        <f>AF46*'Vehicle Loading'!AF6/About!$B$42</f>
+        <f>AF46*'Vehicle Loading'!AF6/About!$B$41</f>
         <v>5.9454477826112234E-4</v>
       </c>
       <c r="AG53">
-        <f>AG46*'Vehicle Loading'!AG6/About!$B$42</f>
+        <f>AG46*'Vehicle Loading'!AG6/About!$B$41</f>
         <v>5.9453718400702383E-4</v>
       </c>
       <c r="AH53">
-        <f>AH46*'Vehicle Loading'!AH6/About!$B$42</f>
+        <f>AH46*'Vehicle Loading'!AH6/About!$B$41</f>
         <v>5.9452923502973146E-4</v>
       </c>
       <c r="AI53">
-        <f>AI46*'Vehicle Loading'!AI6/About!$B$42</f>
+        <f>AI46*'Vehicle Loading'!AI6/About!$B$41</f>
         <v>5.9452155663111705E-4</v>
       </c>
       <c r="AJ53">
-        <f>AJ46*'Vehicle Loading'!AJ6/About!$B$42</f>
+        <f>AJ46*'Vehicle Loading'!AJ6/About!$B$41</f>
         <v>5.9451359806417031E-4</v>
       </c>
       <c r="AK53">
-        <f>AK46*'Vehicle Loading'!AK6/About!$B$42</f>
+        <f>AK46*'Vehicle Loading'!AK6/About!$B$41</f>
         <v>5.9450417951936014E-4</v>
       </c>
     </row>
@@ -67816,147 +67816,147 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <f>B48*'Vehicle Loading'!B6/About!$B$42</f>
+        <f>B48*'Vehicle Loading'!B6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="C54">
-        <f>C48*'Vehicle Loading'!C6/About!$B$42</f>
+        <f>C48*'Vehicle Loading'!C6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="D54">
-        <f>D48*'Vehicle Loading'!D6/About!$B$42</f>
+        <f>D48*'Vehicle Loading'!D6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="E54">
-        <f>E48*'Vehicle Loading'!E6/About!$B$42</f>
+        <f>E48*'Vehicle Loading'!E6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="F54">
-        <f>F48*'Vehicle Loading'!F6/About!$B$42</f>
+        <f>F48*'Vehicle Loading'!F6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="G54">
-        <f>G48*'Vehicle Loading'!G6/About!$B$42</f>
+        <f>G48*'Vehicle Loading'!G6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="H54">
-        <f>H48*'Vehicle Loading'!H6/About!$B$42</f>
+        <f>H48*'Vehicle Loading'!H6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="I54">
-        <f>I48*'Vehicle Loading'!I6/About!$B$42</f>
+        <f>I48*'Vehicle Loading'!I6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="J54">
-        <f>J48*'Vehicle Loading'!J6/About!$B$42</f>
+        <f>J48*'Vehicle Loading'!J6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="K54">
-        <f>K48*'Vehicle Loading'!K6/About!$B$42</f>
+        <f>K48*'Vehicle Loading'!K6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="L54">
-        <f>L48*'Vehicle Loading'!L6/About!$B$42</f>
+        <f>L48*'Vehicle Loading'!L6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="M54">
-        <f>M48*'Vehicle Loading'!M6/About!$B$42</f>
+        <f>M48*'Vehicle Loading'!M6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="N54">
-        <f>N48*'Vehicle Loading'!N6/About!$B$42</f>
+        <f>N48*'Vehicle Loading'!N6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="O54">
-        <f>O48*'Vehicle Loading'!O6/About!$B$42</f>
+        <f>O48*'Vehicle Loading'!O6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="P54">
-        <f>P48*'Vehicle Loading'!P6/About!$B$42</f>
+        <f>P48*'Vehicle Loading'!P6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="Q54">
-        <f>Q48*'Vehicle Loading'!Q6/About!$B$42</f>
+        <f>Q48*'Vehicle Loading'!Q6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="R54">
-        <f>R48*'Vehicle Loading'!R6/About!$B$42</f>
+        <f>R48*'Vehicle Loading'!R6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="S54">
-        <f>S48*'Vehicle Loading'!S6/About!$B$42</f>
+        <f>S48*'Vehicle Loading'!S6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="T54">
-        <f>T48*'Vehicle Loading'!T6/About!$B$42</f>
+        <f>T48*'Vehicle Loading'!T6/About!$B$41</f>
         <v>1.9474577714762068E-3</v>
       </c>
       <c r="U54">
-        <f>U48*'Vehicle Loading'!U6/About!$B$42</f>
+        <f>U48*'Vehicle Loading'!U6/About!$B$41</f>
         <v>1.9340822250365416E-3</v>
       </c>
       <c r="V54">
-        <f>V48*'Vehicle Loading'!V6/About!$B$42</f>
+        <f>V48*'Vehicle Loading'!V6/About!$B$41</f>
         <v>1.9002970614769785E-3</v>
       </c>
       <c r="W54">
-        <f>W48*'Vehicle Loading'!W6/About!$B$42</f>
+        <f>W48*'Vehicle Loading'!W6/About!$B$41</f>
         <v>1.8056082984875188E-3</v>
       </c>
       <c r="X54">
-        <f>X48*'Vehicle Loading'!X6/About!$B$42</f>
+        <f>X48*'Vehicle Loading'!X6/About!$B$41</f>
         <v>1.7497787572125557E-3</v>
       </c>
       <c r="Y54">
-        <f>Y48*'Vehicle Loading'!Y6/About!$B$42</f>
+        <f>Y48*'Vehicle Loading'!Y6/About!$B$41</f>
         <v>1.6843499089638154E-3</v>
       </c>
       <c r="Z54">
-        <f>Z48*'Vehicle Loading'!Z6/About!$B$42</f>
+        <f>Z48*'Vehicle Loading'!Z6/About!$B$41</f>
         <v>1.6266343214836161E-3</v>
       </c>
       <c r="AA54">
-        <f>AA48*'Vehicle Loading'!AA6/About!$B$42</f>
+        <f>AA48*'Vehicle Loading'!AA6/About!$B$41</f>
         <v>1.5858572159115124E-3</v>
       </c>
       <c r="AB54">
-        <f>AB48*'Vehicle Loading'!AB6/About!$B$42</f>
+        <f>AB48*'Vehicle Loading'!AB6/About!$B$41</f>
         <v>1.6044188746767785E-3</v>
       </c>
       <c r="AC54">
-        <f>AC48*'Vehicle Loading'!AC6/About!$B$42</f>
+        <f>AC48*'Vehicle Loading'!AC6/About!$B$41</f>
         <v>1.6231962245113003E-3</v>
       </c>
       <c r="AD54">
-        <f>AD48*'Vehicle Loading'!AD6/About!$B$42</f>
+        <f>AD48*'Vehicle Loading'!AD6/About!$B$41</f>
         <v>1.6421914324889232E-3</v>
       </c>
       <c r="AE54">
-        <f>AE48*'Vehicle Loading'!AE6/About!$B$42</f>
+        <f>AE48*'Vehicle Loading'!AE6/About!$B$41</f>
         <v>1.6614072457635646E-3</v>
       </c>
       <c r="AF54">
-        <f>AF48*'Vehicle Loading'!AF6/About!$B$42</f>
+        <f>AF48*'Vehicle Loading'!AF6/About!$B$41</f>
         <v>1.680846151064214E-3</v>
       </c>
       <c r="AG54">
-        <f>AG48*'Vehicle Loading'!AG6/About!$B$42</f>
+        <f>AG48*'Vehicle Loading'!AG6/About!$B$41</f>
         <v>1.700510650162457E-3</v>
       </c>
       <c r="AH54">
-        <f>AH48*'Vehicle Loading'!AH6/About!$B$42</f>
+        <f>AH48*'Vehicle Loading'!AH6/About!$B$41</f>
         <v>1.7204035804677799E-3</v>
       </c>
       <c r="AI54">
-        <f>AI48*'Vehicle Loading'!AI6/About!$B$42</f>
+        <f>AI48*'Vehicle Loading'!AI6/About!$B$41</f>
         <v>1.7405270695672163E-3</v>
       </c>
       <c r="AJ54">
-        <f>AJ48*'Vehicle Loading'!AJ6/About!$B$42</f>
+        <f>AJ48*'Vehicle Loading'!AJ6/About!$B$41</f>
         <v>1.7608839266653876E-3</v>
       </c>
       <c r="AK54">
-        <f>AK48*'Vehicle Loading'!AK6/About!$B$42</f>
+        <f>AK48*'Vehicle Loading'!AK6/About!$B$41</f>
         <v>1.7814769459243201E-3</v>
       </c>
     </row>
@@ -68730,7 +68730,7 @@
       <selection activeCell="AI21" sqref="AI21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
   </cols>
@@ -69736,7 +69736,7 @@
       <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
